--- a/week8/exampleGraphs.xlsx
+++ b/week8/exampleGraphs.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\teaching\datastructures\2014&amp;2015_Inter\lab12_sort\Lab12 Sort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyzsarun\Desktop\DataStructureLab\week8\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A49400-76ED-461D-B174-A83C53B11F36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="bubble" sheetId="2" r:id="rId2"/>
     <sheet name="selection" sheetId="3" r:id="rId3"/>
+    <sheet name="Insertion" sheetId="4" r:id="rId4"/>
+    <sheet name="Merge" sheetId="7" r:id="rId5"/>
+    <sheet name="Quick" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="10">
   <si>
     <t xml:space="preserve">size </t>
   </si>
@@ -61,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +115,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,7 +133,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="th-TH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -770,7 +780,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="th-TH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -782,6 +792,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sorted  time(ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -872,7 +907,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20000</c:v>
@@ -896,19 +931,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>316</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1277</c:v>
+                  <c:v>887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10777</c:v>
+                  <c:v>3757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1138,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="th-TH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1115,6 +1150,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random  time(ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1229,19 +1289,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>142</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>598</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4495</c:v>
+                  <c:v>2622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21353</c:v>
+                  <c:v>10619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83511</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,7 +1496,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="th-TH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1448,6 +1508,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reverse time(ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1552,19 +1637,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>153</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>678</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2143</c:v>
+                  <c:v>1367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4521</c:v>
+                  <c:v>5082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19211</c:v>
+                  <c:v>20260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,6 +1841,2089 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bubble</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bubble!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sorted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bubble!$A$26:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bubble!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC0E-4252-8046-D45FCB8C2CC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bubble!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bubble!$A$26:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bubble!$C$26:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC0E-4252-8046-D45FCB8C2CC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bubble!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bubble!$A$26:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bubble!$D$26:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5082</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC0E-4252-8046-D45FCB8C2CC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="999920720"/>
+        <c:axId val="1008171472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="999920720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008171472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1008171472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="999920720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>selection!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sorted</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>time(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>selection!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>selection!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3860</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37FB-45C5-8DD4-6E4FDEC40312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1074469168"/>
+        <c:axId val="1008154416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1074469168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008154416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1008154416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1074469168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>selection!$B$9:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>time(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>selection!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>selection!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BEEF-4C83-BC0E-775355B60769}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="997785792"/>
+        <c:axId val="1005448736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="997785792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1005448736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1005448736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="997785792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>selection!$B$17:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>reverse</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>time(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>selection!$A$19:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>selection!$B$19:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FE9-4FF1-9F59-708D0A910E75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1071063280"/>
+        <c:axId val="1005445408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1071063280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1005445408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1005445408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1071063280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>selection!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sorted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>selection!$A$26:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>selection!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3860</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C232-4A2B-ABF7-D18542B6CEAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>selection!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>selection!$A$26:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>selection!$C$26:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C232-4A2B-ABF7-D18542B6CEAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>selection!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>selection!$A$26:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>selection!$D$26:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C232-4A2B-ABF7-D18542B6CEAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1071070080"/>
+        <c:axId val="1005470784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1071070080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1005470784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1005470784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1071070080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1876,6 +4044,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2909,6 +5277,2586 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3441,7 +8389,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3463,20 +8417,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>92074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="แผนภูมิ 1"/>
+        <xdr:cNvPr id="2" name="แผนภูมิ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3493,20 +8453,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>196849</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="แผนภูมิ 2"/>
+        <xdr:cNvPr id="3" name="แผนภูมิ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3523,20 +8489,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>73024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="แผนภูมิ 3"/>
+        <xdr:cNvPr id="4" name="แผนภูมิ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3546,6 +8518,191 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD60AEB-FEEA-4225-AD1D-D363C3EA931C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10265EA-64C8-4585-BD47-E9CC9DDBB7E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF1C389-F9F6-418B-AD35-35A6B2877332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B581DAA4-2014-492F-B8B3-43EE9492DCF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD24DABB-9151-4C12-A310-94B4D81AF73C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3816,21 +8973,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3850,7 +9007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -3874,7 +9031,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20000</v>
       </c>
@@ -3898,7 +9055,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>40000</v>
       </c>
@@ -3922,7 +9079,7 @@
         <v>5991</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>80000</v>
       </c>
@@ -3946,7 +9103,7 @@
         <v>24065</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>160000</v>
       </c>
@@ -3970,7 +9127,7 @@
         <v>96391</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>32000000</v>
       </c>
@@ -3994,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>64000000</v>
       </c>
@@ -4018,12 +9175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4031,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -4039,7 +9196,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>20000</v>
       </c>
@@ -4047,7 +9204,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>40000</v>
       </c>
@@ -4055,7 +9212,7 @@
         <v>6293</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>80000</v>
       </c>
@@ -4063,7 +9220,7 @@
         <v>25588</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>160000</v>
       </c>
@@ -4071,7 +9228,7 @@
         <v>103375</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>32000000</v>
       </c>
@@ -4079,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>64000000</v>
       </c>
@@ -4087,12 +9244,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4100,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10000</v>
       </c>
@@ -4108,7 +9265,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>20000</v>
       </c>
@@ -4116,7 +9273,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>40000</v>
       </c>
@@ -4124,7 +9281,7 @@
         <v>5991</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>80000</v>
       </c>
@@ -4132,7 +9289,7 @@
         <v>24065</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>160000</v>
       </c>
@@ -4140,7 +9297,7 @@
         <v>96391</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>32000000</v>
       </c>
@@ -4148,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>64000000</v>
       </c>
@@ -4163,21 +9320,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4185,52 +9342,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20000</v>
       </c>
       <c r="B4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>40000</v>
       </c>
       <c r="B5">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>80000</v>
       </c>
       <c r="B6">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>160000</v>
       </c>
       <c r="B7">
-        <v>10777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4238,52 +9395,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>20000</v>
       </c>
       <c r="B12">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>40000</v>
       </c>
       <c r="B13">
-        <v>4495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>80000</v>
       </c>
       <c r="B14">
-        <v>21353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>160000</v>
       </c>
       <c r="B15">
-        <v>83511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -4291,47 +9448,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10000</v>
       </c>
       <c r="B19">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20000</v>
       </c>
       <c r="B20">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>40000</v>
       </c>
       <c r="B21">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>80000</v>
       </c>
       <c r="B22">
-        <v>4521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>160000</v>
       </c>
       <c r="B23">
-        <v>19211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -4345,74 +9502,74 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>10000</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D26">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>20000</v>
       </c>
       <c r="B27">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C27">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D27">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>40000</v>
       </c>
       <c r="B28">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="C28">
-        <v>4495</v>
+        <v>2622</v>
       </c>
       <c r="D28">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>80000</v>
       </c>
       <c r="B29">
-        <v>1277</v>
+        <v>887</v>
       </c>
       <c r="C29">
-        <v>21353</v>
+        <v>10619</v>
       </c>
       <c r="D29">
-        <v>4521</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>160000</v>
       </c>
       <c r="B30">
-        <v>10777</v>
+        <v>3757</v>
       </c>
       <c r="C30">
-        <v>83511</v>
+        <v>43917</v>
       </c>
       <c r="D30">
-        <v>19211</v>
+        <v>20260</v>
       </c>
     </row>
   </sheetData>
@@ -4422,21 +9579,280 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>20000</v>
+      </c>
+      <c r="B4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>40000</v>
+      </c>
+      <c r="B5">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>80000</v>
+      </c>
+      <c r="B6">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>160000</v>
+      </c>
+      <c r="B7">
+        <v>5685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>20000</v>
+      </c>
+      <c r="B12">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>40000</v>
+      </c>
+      <c r="B13">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>80000</v>
+      </c>
+      <c r="B14">
+        <v>8673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>160000</v>
+      </c>
+      <c r="B15">
+        <v>31359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>10000</v>
+      </c>
+      <c r="B19">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>20000</v>
+      </c>
+      <c r="B20">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>40000</v>
+      </c>
+      <c r="B21">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>80000</v>
+      </c>
+      <c r="B22">
+        <v>7736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>160000</v>
+      </c>
+      <c r="B23">
+        <v>31507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>10000</v>
+      </c>
+      <c r="B26">
+        <v>73</v>
+      </c>
+      <c r="C26">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>20000</v>
+      </c>
+      <c r="B27">
+        <v>99</v>
+      </c>
+      <c r="C27">
+        <v>544</v>
+      </c>
+      <c r="D27">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>40000</v>
+      </c>
+      <c r="B28">
+        <v>966</v>
+      </c>
+      <c r="C28">
+        <v>2178</v>
+      </c>
+      <c r="D28">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>80000</v>
+      </c>
+      <c r="B29">
+        <v>3860</v>
+      </c>
+      <c r="C29">
+        <v>8673</v>
+      </c>
+      <c r="D29">
+        <v>7736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>160000</v>
+      </c>
+      <c r="B30">
+        <v>5685</v>
+      </c>
+      <c r="C30">
+        <v>31359</v>
+      </c>
+      <c r="D30">
+        <v>31507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC4738C-104F-4FCB-A746-31EBD96220D3}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4444,138 +9860,153 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10000</v>
       </c>
       <c r="B3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20000</v>
       </c>
       <c r="B4">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>40000</v>
       </c>
       <c r="B5">
-        <v>3952</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>80000</v>
       </c>
       <c r="B6">
-        <v>12936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>160000</v>
       </c>
       <c r="B7">
-        <v>19523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>20000</v>
       </c>
       <c r="B12">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>40000</v>
       </c>
       <c r="B13">
-        <v>6571</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>80000</v>
       </c>
       <c r="B14">
-        <v>28945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>160000</v>
       </c>
       <c r="B15">
-        <v>105045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>40000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>80000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>160000</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -4589,29 +10020,686 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>10000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>148</v>
+      </c>
+      <c r="D26">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>20000</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>587</v>
+      </c>
+      <c r="D27">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>40000</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>372</v>
+      </c>
+      <c r="C28">
+        <v>2622</v>
+      </c>
+      <c r="D28">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>80000</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>887</v>
+      </c>
+      <c r="C29">
+        <v>10619</v>
+      </c>
+      <c r="D29">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>160000</v>
+      </c>
+      <c r="B30">
+        <v>3757</v>
+      </c>
+      <c r="C30">
+        <v>43917</v>
+      </c>
+      <c r="D30">
+        <v>20260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC20CCD5-590C-49C4-9981-4F00EDEB0F75}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1000000</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2000000</v>
+      </c>
+      <c r="B4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4000000</v>
+      </c>
+      <c r="B5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>8000000</v>
+      </c>
+      <c r="B6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>16000000</v>
+      </c>
+      <c r="B7">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>32000000</v>
+      </c>
+      <c r="B8">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>64000000</v>
+      </c>
+      <c r="B9">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1000000</v>
+      </c>
+      <c r="B12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2000000</v>
+      </c>
+      <c r="B13">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4000000</v>
+      </c>
+      <c r="B14">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>8000000</v>
+      </c>
+      <c r="B15">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>16000000</v>
+      </c>
+      <c r="B16">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>32000000</v>
+      </c>
+      <c r="B17">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>64000000</v>
+      </c>
+      <c r="B18">
+        <v>10782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1000000</v>
+      </c>
+      <c r="B21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2000000</v>
+      </c>
+      <c r="B22">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>4000000</v>
+      </c>
+      <c r="B23">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>8000000</v>
+      </c>
+      <c r="B24">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>16000000</v>
+      </c>
+      <c r="B25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>32000000</v>
+      </c>
+      <c r="B26">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>64000000</v>
+      </c>
+      <c r="B27">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>10000</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>148</v>
+      </c>
+      <c r="D29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>20000</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>587</v>
+      </c>
+      <c r="D30">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>40000</v>
+      </c>
+      <c r="B31">
+        <v>372</v>
+      </c>
+      <c r="C31">
+        <v>2622</v>
+      </c>
+      <c r="D31">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>80000</v>
+      </c>
+      <c r="B32">
+        <v>887</v>
+      </c>
+      <c r="C32">
+        <v>10619</v>
+      </c>
+      <c r="D32">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>160000</v>
+      </c>
+      <c r="B33">
+        <v>3757</v>
+      </c>
+      <c r="C33">
+        <v>43917</v>
+      </c>
+      <c r="D33">
+        <v>20260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8D6092-0428-4756-A72F-75E2E523DF3C}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1000000</v>
+      </c>
+      <c r="B3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2000000</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4000000</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>8000000</v>
+      </c>
+      <c r="B6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>16000000</v>
+      </c>
+      <c r="B7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>32000000</v>
+      </c>
+      <c r="B8">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>64000000</v>
+      </c>
+      <c r="B9">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1000000</v>
+      </c>
+      <c r="B12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2000000</v>
+      </c>
+      <c r="B13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4000000</v>
+      </c>
+      <c r="B14">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>8000000</v>
+      </c>
+      <c r="B15">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>16000000</v>
+      </c>
+      <c r="B16">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>32000000</v>
+      </c>
+      <c r="B17">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>64000000</v>
+      </c>
+      <c r="B18">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1000000</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2000000</v>
+      </c>
+      <c r="B22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>4000000</v>
+      </c>
+      <c r="B23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>8000000</v>
+      </c>
+      <c r="B24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>16000000</v>
+      </c>
+      <c r="B25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>32000000</v>
+      </c>
+      <c r="B26">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>64000000</v>
+      </c>
+      <c r="B27">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>10000</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>148</v>
+      </c>
+      <c r="D29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>20000</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>587</v>
+      </c>
+      <c r="D30">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>40000</v>
+      </c>
+      <c r="B31">
+        <v>372</v>
+      </c>
+      <c r="C31">
+        <v>2622</v>
+      </c>
+      <c r="D31">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>80000</v>
+      </c>
+      <c r="B32">
+        <v>887</v>
+      </c>
+      <c r="C32">
+        <v>10619</v>
+      </c>
+      <c r="D32">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>160000</v>
+      </c>
+      <c r="B33">
+        <v>3757</v>
+      </c>
+      <c r="C33">
+        <v>43917</v>
+      </c>
+      <c r="D33">
+        <v>20260</v>
       </c>
     </row>
   </sheetData>
